--- a/data/income_statement/2digits/size/49_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/49_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>49-Land transport and transport via pipelines</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>49-Land transport and transport via pipelines</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,896 +841,1011 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>9700102.36882</v>
+        <v>9798105.386360001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>11244153.14869</v>
+        <v>11334266.17674</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>13319403.57303</v>
+        <v>13467247.10154</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>15269286.76161</v>
+        <v>15525805.80489</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>19722142.31862</v>
+        <v>19927753.18713</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>21398540.83518</v>
+        <v>21827745.22703</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>22489732.54691</v>
+        <v>23328792.1928</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>23113506.98853</v>
+        <v>23597565.76662</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>27643993.49795</v>
+        <v>28116920.14772</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>36830958.82825</v>
+        <v>37025139.63183</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>42460185.5051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>43380359.61153</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>48614207.851</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>6097178.32142</v>
+        <v>6150273.415560001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7486474.42649</v>
+        <v>7530202.207420001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8844038.47734</v>
+        <v>8910256.83812</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>10251958.6677</v>
+        <v>10380705.37356</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>12785432.63777</v>
+        <v>12849457.27169</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>13908571.75819</v>
+        <v>14164160.16896</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>14984096.72758</v>
+        <v>15348983.07156</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>15743120.79233</v>
+        <v>15981756.69035</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>18808435.40038</v>
+        <v>19074859.76635</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>22432969.58804</v>
+        <v>22536871.65795</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>25393957.7511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25907968.72973</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>29031019.129</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3311468.74605</v>
+        <v>3359015.12036</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3419315.49579</v>
+        <v>3466999.54726</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4063522.94529</v>
+        <v>4144575.07391</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4543413.92459</v>
+        <v>4656425.29867</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6347682.95197</v>
+        <v>6478321.17564</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>6827717.48467</v>
+        <v>6985570.74279</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6865290.51912</v>
+        <v>7306024.94689</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6609633.07553</v>
+        <v>6818418.85196</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7994796.02464</v>
+        <v>8180137.08846</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>13346658.69324</v>
+        <v>13443491.79241</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15950988.01289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16333249.87548</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>18306667.038</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>291455.30135</v>
+        <v>288816.85044</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>338363.22641</v>
+        <v>337064.42206</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>411842.1504</v>
+        <v>412415.1895100001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>473914.16932</v>
+        <v>488675.13266</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>589026.72888</v>
+        <v>599974.7398</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>662251.5923200001</v>
+        <v>678014.31528</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>640345.30021</v>
+        <v>673784.1743499999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>760753.12067</v>
+        <v>797390.22431</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>840762.0729299999</v>
+        <v>861923.2929100001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1051330.54697</v>
+        <v>1044776.18147</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1115239.74111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1139141.00632</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1276521.684</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>16549.60232</v>
+        <v>17587.99052</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>22222.05593</v>
+        <v>21368.54157</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>27553.28595</v>
+        <v>26031.97208</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>24034.49121</v>
+        <v>24733.69878</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>29756.34212</v>
+        <v>29954.40637</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>58818.49516</v>
+        <v>57273.73692</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>62906.81056000001</v>
+        <v>96506.2693</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>63552.85531</v>
+        <v>81426.9142</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>400985.78542</v>
+        <v>403257.5368799999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>124530.53977</v>
+        <v>120851.92454</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>138446.30005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>141778.26182</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>821569.62</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>12252.26621</v>
+        <v>12874.78427</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>17319.76962</v>
+        <v>16483.6702</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>13150.96563</v>
+        <v>13304.79553</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>16447.96844</v>
+        <v>17077.4143</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>20666.26339</v>
+        <v>20905.84796</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>35205.28542</v>
+        <v>33460.63679</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>54474.80665999999</v>
+        <v>87118.89719000002</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>53742.71882</v>
+        <v>71727.72747</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>390635.05661</v>
+        <v>391545.7343599999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>99195.84600000001</v>
+        <v>99079.84255999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>116743.16459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>119796.51585</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>557484.873</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2218.50614</v>
+        <v>2285.15074</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2529.89904</v>
+        <v>2503.19941</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>7108.74392</v>
+        <v>7088.10545</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2552.39</v>
+        <v>2595.8</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2957.14128</v>
+        <v>3086.93429</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2977.14532</v>
+        <v>3114.72548</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3683.99063</v>
+        <v>4179.02812</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4079.55974</v>
+        <v>4084.04249</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4665.32102</v>
+        <v>6004.02414</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>9831.252469999999</v>
+        <v>9340.699120000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>10070.46982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10146.1567</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>12504.258</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2078.82997</v>
+        <v>2428.05551</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2372.38727</v>
+        <v>2381.67196</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7293.5764</v>
+        <v>5639.071099999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>5034.132769999999</v>
+        <v>5060.48448</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>6132.93745</v>
+        <v>5961.62412</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>20636.06442</v>
+        <v>20698.37465</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4748.013269999999</v>
+        <v>5208.34399</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5730.57675</v>
+        <v>5615.144240000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5685.40779</v>
+        <v>5707.77838</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>15503.4413</v>
+        <v>12431.38286</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>11632.66564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11835.58927</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>251580.489</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>9683552.7665</v>
+        <v>9780517.39584</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>11221931.09276</v>
+        <v>11312897.63517</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>13291850.28708</v>
+        <v>13441215.12946</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>15245252.2704</v>
+        <v>15501072.10611</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>19692385.9765</v>
+        <v>19897798.78076</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>21339722.34002</v>
+        <v>21770471.49011</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>22426825.73635</v>
+        <v>23232285.9235</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>23049954.13322</v>
+        <v>23516138.85242</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>27243007.71253</v>
+        <v>27713662.61084</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>36706428.28848001</v>
+        <v>36904287.70729</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>42321739.20505001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>43238581.34971</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>47792638.231</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>8440833.27225</v>
+        <v>8525842.353359999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>9847870.242380001</v>
+        <v>9951348.972759997</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>11639493.05672</v>
+        <v>11786235.65825</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>13301166.91119</v>
+        <v>13538565.59007</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>17067665.72826</v>
+        <v>17293421.83266</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>18584333.47464</v>
+        <v>19016433.71098</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>19439584.44819</v>
+        <v>20162089.89869</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>20075381.31135</v>
+        <v>20514187.62863</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>23816369.91342</v>
+        <v>24229648.50306</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>32262668.88999</v>
+        <v>32411610.04279</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>37706343.92606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>38519345.41103</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>42458716.826</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>108403.6895</v>
+        <v>120891.81379</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>98801.36989</v>
+        <v>101995.02676</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>111118.374</v>
+        <v>121623.53898</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>112992.20609</v>
+        <v>114251.28468</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>199778.91924</v>
+        <v>204867.20263</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>257133.05509</v>
+        <v>264082.56482</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>206599.96444</v>
+        <v>208485.51016</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>239871.39458</v>
+        <v>258804.18384</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>306338.50386</v>
+        <v>311454.55044</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>438273.05816</v>
+        <v>435657.24018</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>580010.92209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>596644.8423400001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>599813.105</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1405431.10771</v>
+        <v>1413867.72289</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1478365.39864</v>
+        <v>1483382.53614</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1677950.95808</v>
+        <v>1699136.71659</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1732699.79002</v>
+        <v>1756249.7166</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2203235.58022</v>
+        <v>2235770.57531</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2411657.72674</v>
+        <v>2484812.36031</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3094444.92412</v>
+        <v>3256154.94859</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3377259.64471</v>
+        <v>3464524.36262</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4720930.31384</v>
+        <v>4812817.68704</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4461918.856400001</v>
+        <v>4522880.321409999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6308706.75938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6535406.677979999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7727088.011</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>6902884.76278</v>
+        <v>6965735.62682</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>8229816.92566</v>
+        <v>8325762.32531</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9810984.529299999</v>
+        <v>9927650.52163</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>11407380.73467</v>
+        <v>11620422.61636</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>14579751.71961</v>
+        <v>14770595.9696</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>15752689.48578</v>
+        <v>16094485.21527</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>15920608.61668</v>
+        <v>16460554.69082</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>16186543.73756</v>
+        <v>16504986.98812</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>18393980.636</v>
+        <v>18708248.92266</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>26881352.56668</v>
+        <v>26981287.02007001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>30297635.11411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>30850014.14378</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>33289625.72</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>24113.71226</v>
+        <v>25347.18986</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>40886.54818999999</v>
+        <v>40209.08455</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>39439.19534000001</v>
+        <v>37824.88105</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>48094.18040999999</v>
+        <v>47641.97243</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>84899.50919</v>
+        <v>82188.08512</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>162853.20703</v>
+        <v>173053.57058</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>217930.94295</v>
+        <v>236894.74912</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>271706.5345</v>
+        <v>285872.09405</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>395120.45972</v>
+        <v>397127.34292</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>481124.40875</v>
+        <v>471785.46113</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>519991.1304799999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>537279.74693</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>842189.99</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1242719.49425</v>
+        <v>1254675.04248</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1374060.85038</v>
+        <v>1361548.66241</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1652357.23036</v>
+        <v>1654979.47121</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1944085.35921</v>
+        <v>1962506.51604</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2624720.24824</v>
+        <v>2604376.9481</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2755388.86538</v>
+        <v>2754037.77913</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2987241.28816</v>
+        <v>3070196.02481</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2974572.82187</v>
+        <v>3001951.22379</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3426637.79911</v>
+        <v>3484014.10778</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4443759.39849</v>
+        <v>4492677.6645</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4615395.27899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4719235.938680001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5333921.405</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1158749.64329</v>
+        <v>1175171.6583</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1239265.42568</v>
+        <v>1233032.15754</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1513437.14357</v>
+        <v>1525766.59063</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1799065.51277</v>
+        <v>1835953.02418</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2323142.69168</v>
+        <v>2322202.49752</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2467720.61692</v>
+        <v>2474122.06361</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2629117.15881</v>
+        <v>2710238.14445</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2762640.19843</v>
+        <v>2781123.823</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3049098.10074</v>
+        <v>3062003.20498</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3753068.95395</v>
+        <v>3767879.19814</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4089946.19112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4175150.60526</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4549738.41</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2356.83623</v>
+        <v>4152.56201</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1870.88189</v>
+        <v>1861.57136</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>422.42899</v>
+        <v>422.22569</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2554.4642</v>
+        <v>2349.56989</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5859.01384</v>
+        <v>5853.17332</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3358.89746</v>
+        <v>3354.63395</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6321.29034</v>
+        <v>5658.950720000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7263.23301</v>
+        <v>7147.15871</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>4051.74447</v>
+        <v>3638.23449</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>91537.72769</v>
+        <v>91265.88387000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>763.1851899999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>896.73034</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>32298.58</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>191512.42783</v>
+        <v>192793.72748</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>192047.66783</v>
+        <v>189942.8328</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>224415.48902</v>
+        <v>227405.36275</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>247522.90216</v>
+        <v>263649.34155</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>307927.12103</v>
+        <v>303555.60282</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>343049.30991</v>
+        <v>342436.68421</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>391811.56224</v>
+        <v>404552.25346</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>383357.53523</v>
+        <v>394973.57988</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>402407.09367</v>
+        <v>401427.69235</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>521923.22912</v>
+        <v>534363.66058</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>645458.32939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>664733.39539</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>717598.074</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>964880.3792299998</v>
+        <v>978225.36881</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1045346.87596</v>
+        <v>1041227.75338</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1288599.22556</v>
+        <v>1297939.00219</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1548988.14641</v>
+        <v>1569954.11274</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2009356.55681</v>
+        <v>2012793.72138</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2121312.40955</v>
+        <v>2128330.74545</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2230984.30623</v>
+        <v>2300026.94027</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2372019.43019</v>
+        <v>2379003.08441</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2642639.2626</v>
+        <v>2656937.27814</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3139607.99714</v>
+        <v>3142249.65369</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3443724.67654</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3509520.47953</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3799841.756</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>83969.85096</v>
+        <v>79503.38417999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>134795.4247</v>
+        <v>128516.50487</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>138920.08679</v>
+        <v>129212.88058</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>145019.84644</v>
+        <v>126553.49186</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>301577.55656</v>
+        <v>282174.4505800001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>287668.24846</v>
+        <v>279915.71552</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>358124.12935</v>
+        <v>359957.88036</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>211932.62344</v>
+        <v>220827.40079</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>377539.69837</v>
+        <v>422010.9028</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>690690.4445399999</v>
+        <v>724798.46636</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>525449.08787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>544085.3334199999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>784182.995</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>110955.24333</v>
+        <v>168284.83857</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>123994.35265</v>
+        <v>140788.80465</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>139246.68611</v>
+        <v>174368.70341</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>138929.30911</v>
+        <v>154230.56031</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>234547.82253</v>
+        <v>269594.12115</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>200013.52995</v>
+        <v>249732.90782</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>312581.86392</v>
+        <v>350269.55618</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>231461.46439</v>
+        <v>334936.12883</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>228138.44248</v>
+        <v>354951.06608</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>889032.27556</v>
+        <v>1157460.3632</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>593601.4739600001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>684282.8425400001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>922680.542</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2388.92298</v>
+        <v>2873.45639</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1259.53668</v>
+        <v>1613.66807</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>642.59249</v>
+        <v>5532.59811</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1838.97075</v>
+        <v>6824.26784</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2440.36218</v>
+        <v>12986.75198</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2731.78134</v>
+        <v>10102.63406</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>861.93297</v>
+        <v>1998.80066</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1312.83804</v>
+        <v>3945.99149</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1978.72677</v>
+        <v>3535.50185</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4489.90184</v>
+        <v>5160.86143</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1992.14234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3416.78684</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2364.62</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>288.73797</v>
+        <v>286.648</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>829.71149</v>
+        <v>4537.06177</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>535.36308</v>
+        <v>1384.74717</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>712.2564599999999</v>
+        <v>1995.50483</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>658.6452399999999</v>
+        <v>3060.9153</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>811.28436</v>
+        <v>3776.84966</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>373.78843</v>
+        <v>1653.2808</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>648.61837</v>
+        <v>402.95447</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>1146.06701</v>
@@ -1838,208 +1854,238 @@
         <v>2188.62606</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1666.20707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>950.94353</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>328.93</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>6950.532230000001</v>
+        <v>13601.14947</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7704.68379</v>
+        <v>9137.63096</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7580.861629999999</v>
+        <v>9359.18172</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>7656.88555</v>
+        <v>8515.8279</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>9545.6083</v>
+        <v>11699.34014</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>10186.26727</v>
+        <v>13619.50885</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>15445.375</v>
+        <v>24129.06812</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>11153.64849</v>
+        <v>18438.6999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13416.4997</v>
+        <v>21149.18093</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>47841.60471</v>
+        <v>51018.44739000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>51776.33093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>53137.09786000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>38358.555</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>4514.72781</v>
+        <v>6495.05397</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4114.45014</v>
+        <v>4034.76229</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>4438.39871</v>
+        <v>4076.09575</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>5253.38387</v>
+        <v>5221.74843</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5736.233099999999</v>
+        <v>5406.74745</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5016.99044</v>
+        <v>4657.48308</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5781.91246</v>
+        <v>5338.1588</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7269.06707</v>
+        <v>7085.08798</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>6941.18015</v>
+        <v>5321.69045</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>19640.74853</v>
+        <v>19619.91909</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>6958.046300000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7792.39821</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>5141.389</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1388.92318</v>
+        <v>1376.84031</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1206.41332</v>
+        <v>1200.91332</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1019.69399</v>
+        <v>1085.70438</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2059.0154</v>
+        <v>2827.27167</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4886.0622</v>
+        <v>4929.798900000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4626.17741</v>
+        <v>4562.85544</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>6359.15106</v>
+        <v>2355.71006</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2445.09495</v>
+        <v>2741.33957</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1736.36748</v>
+        <v>2202.14634</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2519.79912</v>
+        <v>2727.20632</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3824.16408</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6239.768929999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5008.731</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>3897.81841</v>
+        <v>3730.96064</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1234.16506</v>
+        <v>1231.50688</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2411.32728</v>
+        <v>2187.86521</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1520.15891</v>
+        <v>1405.04499</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1400.44508</v>
+        <v>1581.57168</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1531.61355</v>
+        <v>2184.23582</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1478.6951</v>
+        <v>1695.43718</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>649.74401</v>
+        <v>1129.87411</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3787.168889999999</v>
+        <v>4080.6809</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2791.22043</v>
+        <v>2763.14005</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3695.35944</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3173.77599</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6398.144</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>54623.4711</v>
+        <v>100980.86419</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>65198.68496</v>
+        <v>75262.01048</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>72399.77623</v>
+        <v>92146.54231999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>55145.50467</v>
+        <v>62790.59987</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>120674.89951</v>
+        <v>142478.74631</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>89487.87152</v>
+        <v>113800.28235</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>191615.76786</v>
+        <v>218482.51337</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>116281.07488</v>
+        <v>215359.49717</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>105763.99118</v>
+        <v>216517.69489</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>660961.53384</v>
+        <v>932351.69787</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>349432.085</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>423243.63996</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>617198.659</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>128.17906</v>
@@ -2051,7 +2097,7 @@
         <v>160.98637</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>385.72189</v>
+        <v>1333.04942</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>19.35635</v>
@@ -2060,10 +2106,10 @@
         <v>40.54336</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>124.68926</v>
+        <v>846.74433</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>32.48851000000001</v>
+        <v>630.52913</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>61.53332000000001</v>
@@ -2072,313 +2118,353 @@
         <v>39.48351</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2416.22554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>621.31663</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>136.049</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>445.57687</v>
+        <v>421.8053</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>708.87751</v>
+        <v>724.21298</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>346.45514</v>
+        <v>342.45869</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>310.59593</v>
+        <v>291.17371</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>522.6592900000001</v>
+        <v>518.48373</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>271.1659</v>
+        <v>261.8737</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>206.61775</v>
+        <v>122.94997</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>867.01622</v>
+        <v>766.9291599999999</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>489.5299499999999</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>87.09432</v>
+        <v>76.77821</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>918.73722</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>894.2579199999999</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>735.841</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>36328.35372</v>
+        <v>38389.88124</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>41283.01631</v>
+        <v>42592.22451</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>49711.23119</v>
+        <v>58092.52369</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>64046.81568</v>
+        <v>63026.07165000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>88663.55128</v>
+        <v>86912.40931</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>85309.8348</v>
+        <v>96726.6415</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>90333.93403</v>
+        <v>93646.89289</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>90801.87384999999</v>
+        <v>84435.22585</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>92817.37803000001</v>
+        <v>100447.04044</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>148472.2632</v>
+        <v>141514.20327</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>170922.17604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>184812.85667</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>247009.624</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>100389.66409</v>
+        <v>144279.81048</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>88356.85968000001</v>
+        <v>101311.387</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>138773.58402</v>
+        <v>161910.97863</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>100660.92785</v>
+        <v>111555.19729</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>239882.8538</v>
+        <v>274385.88916</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>162446.18374</v>
+        <v>187516.60725</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>265699.6953</v>
+        <v>296233.85336</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>202813.3261</v>
+        <v>273808.81194</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>209191.05172</v>
+        <v>328291.74349</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>844073.51429</v>
+        <v>1231924.9611</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>473981.48227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>555986.17799</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>704055.313</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>11521.29618</v>
+        <v>11551.54062</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>9996.229059999998</v>
+        <v>9921.400969999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6549.364390000001</v>
+        <v>7595.610269999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6947.051620000001</v>
+        <v>7318.27479</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>6230.20266</v>
+        <v>6310.519699999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4922.17894</v>
+        <v>5486.74303</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4022.13499</v>
+        <v>5891.77378</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8274.99217</v>
+        <v>8642.684310000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>6746.87851</v>
+        <v>6843.01982</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>16440.1025</v>
+        <v>16283.43528</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5678.809789999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5719.26665</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5679.78</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6102.793390000001</v>
+        <v>5855.2545</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4437.61645</v>
+        <v>4904.289900000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3725.71016</v>
+        <v>4477.27158</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>7260.86083</v>
+        <v>8496.02218</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>10925.19662</v>
+        <v>10582.0616</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>13386.06291</v>
+        <v>13307.12641</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7475.38805</v>
+        <v>9238.930400000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11075.58693</v>
+        <v>11330.84595</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6831.47543</v>
+        <v>7222.35917</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>14777.85678</v>
+        <v>24687.79734</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>34034.55988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>35754.89178</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>13426.797</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1067.50039</v>
+        <v>855.54953</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>869.6697800000001</v>
+        <v>863.83961</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1203.3893</v>
+        <v>1149.5438</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1481.97137</v>
+        <v>1333.01124</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2687.46815</v>
+        <v>8335.899380000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>714.6822099999999</v>
+        <v>1047.78633</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>607.0976000000001</v>
+        <v>553.26348</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>730.7096599999999</v>
+        <v>1622.43084</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>572.31066</v>
+        <v>655.4136999999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>227.93257</v>
+        <v>220.10869</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1287.42931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>882.2533599999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>882.63</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>62712.17949</v>
+        <v>107247.75552</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>52794.49173</v>
+        <v>66989.70344000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>91936.97439999999</v>
+        <v>112469.98472</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>47193.93077000001</v>
+        <v>54510.56026</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>164235.83562</v>
+        <v>191344.75871</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>86513.07167</v>
+        <v>107474.48534</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>211187.71819</v>
+        <v>238852.20796</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>135296.98945</v>
+        <v>206679.84004</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>146428.76904</v>
+        <v>261723.06569</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>742718.59566</v>
+        <v>1119474.73592</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>365722.18019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>444987.78191</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>595052.9449999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>494.44394</v>
+        <v>490.14541</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>579.7433199999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>439.56202</v>
+        <v>541.3051899999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>722.8439099999999</v>
+        <v>1451.78214</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>2692.392409999999</v>
+        <v>2859.242909999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>3449.24607</v>
+        <v>3561.95062</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>775.43807</v>
+        <v>1118.07487</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>902.1518000000001</v>
+        <v>896.1941699999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>580.36377</v>
+        <v>568.94453</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>2272.28767</v>
@@ -2386,38 +2472,43 @@
       <c r="M41" s="48" t="n">
         <v>1550.33829</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2082.341</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>199.66589</v>
+        <v>199.62324</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>49.38157</v>
+        <v>11.03389</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>550.9428800000001</v>
+        <v>0.95727</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>235.26197</v>
+        <v>235.13819</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>70.4731</v>
+        <v>87.89855</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>184.83751</v>
+        <v>181.80751</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>67.78847</v>
+        <v>67.78835000000001</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>259.37721</v>
+        <v>168.12876</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0.58575</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>43.33781</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>7.373</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>18291.78481</v>
+        <v>18079.94166</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>19629.72777</v>
+        <v>18041.37587</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>34367.64087</v>
+        <v>35676.30579999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>36819.00738</v>
+        <v>38210.40849</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>53041.28524</v>
+        <v>54865.50831</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>53276.10443</v>
+        <v>56456.70800999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>41564.12993</v>
+        <v>40511.81451999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>46273.51888</v>
+        <v>44468.68786999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>48031.25426</v>
+        <v>51278.94057</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>67636.15336</v>
+        <v>68986.01045</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>65664.827</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>67048.30819</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>86923.447</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>147154.34338</v>
+        <v>154561.69074</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>118385.33487</v>
+        <v>122915.31913</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>145869.82981</v>
+        <v>152448.95319</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>193547.08456</v>
+        <v>205091.90717</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>261964.67778</v>
+        <v>272417.29101</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>297145.7895</v>
+        <v>313381.0948199999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>343778.86155</v>
+        <v>371677.20012</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>348786.01705</v>
+        <v>393376.66279</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>385731.25718</v>
+        <v>418976.98545</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>696913.63511</v>
+        <v>726561.6526100001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>701501.25437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>733814.2652</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>685472.162</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>133037.73788</v>
+        <v>140270.95721</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>106871.60846</v>
+        <v>111670.36714</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>134005.62295</v>
+        <v>140585.84542</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>179448.22769</v>
+        <v>190745.77711</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>238135.41275</v>
+        <v>247856.02538</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>270778.93606</v>
+        <v>287201.76306</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>314083.71199</v>
+        <v>339880.1965200001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>318848.36288</v>
+        <v>359333.5754399999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>350900.67811</v>
+        <v>383812.72631</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>637508.7993899999</v>
+        <v>665009.6958100001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>646668.00339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>683585.31264</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>632784.346</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>14116.6055</v>
+        <v>14290.73353</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>11513.72641</v>
+        <v>11244.95199</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>11864.20686</v>
+        <v>11863.10777</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>14098.85687</v>
+        <v>14346.13006</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>23829.26503</v>
+        <v>24561.26563</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>26366.85344</v>
+        <v>26179.33176</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>29695.14956</v>
+        <v>31797.0036</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>29937.65417</v>
+        <v>34043.08735</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>34830.57907</v>
+        <v>35164.25914</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>59404.83572</v>
+        <v>61551.9568</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>54833.25098</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>50228.95256</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>52687.816</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-52618.91318000001</v>
+        <v>-51053.27847</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>52047.58279999999</v>
+        <v>45078.60339000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-6476.64093</v>
+        <v>-10778.34783</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-10258.85686</v>
+        <v>-35863.05229000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>34277.84751000001</v>
+        <v>4965.391559999998</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>28089.80517</v>
+        <v>28750.92127</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>61227.43642</v>
+        <v>42316.38306</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-108205.25532</v>
+        <v>-111421.94511</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>10755.83195</v>
+        <v>29693.23994</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>38735.5707</v>
+        <v>-76227.78415000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-56432.17480999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-61432.26723000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>317336.062</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>121235.57764</v>
+        <v>120460.65542</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>162558.32193</v>
+        <v>158222.88374</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>189390.06354</v>
+        <v>192602.3798</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>230974.80044</v>
+        <v>242693.34282</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>292649.59032</v>
+        <v>305872.74546</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>345632.22813</v>
+        <v>364628.00874</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>398350.44159</v>
+        <v>559739.1895300001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>432388.72386</v>
+        <v>461091.12891</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>472071.05565</v>
+        <v>498269.63712</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>647126.15154</v>
+        <v>706134.0719499999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>764802.4691</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>751255.5260900001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>862190.807</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1609.20526</v>
+        <v>1885.41991</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2529.95476</v>
+        <v>2038.50555</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1354.81549</v>
+        <v>1019.31552</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2099.28023</v>
+        <v>2078.28104</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3705.02947</v>
+        <v>3049.73259</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4063.909069999999</v>
+        <v>4442.46289</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4890.50288</v>
+        <v>5171.87271</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>5186.10691</v>
+        <v>2568.2795</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>5056.9795</v>
+        <v>5053.81709</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>11485.09121</v>
+        <v>9051.506660000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>9586.790870000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6061.0403</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>68737.86</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>119626.37238</v>
+        <v>118575.23551</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>160028.36717</v>
+        <v>156184.37819</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>188035.24805</v>
+        <v>191583.06428</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>228875.52021</v>
+        <v>240615.06178</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>288944.56085</v>
+        <v>302823.01287</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>341568.31906</v>
+        <v>360185.5458499999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>393459.93871</v>
+        <v>554567.3168200001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>427202.61695</v>
+        <v>458522.84941</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>467014.07615</v>
+        <v>493215.82003</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>635641.06033</v>
+        <v>697082.5652900001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>755215.6782299998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>745194.4857899998</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>793452.947</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>91039.81074</v>
+        <v>90676.54576000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>104050.49655</v>
+        <v>108600.26998</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>311518.54438</v>
+        <v>317792.7236</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>149428.05307</v>
+        <v>152882.01336</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>172128.03082</v>
+        <v>167030.48795</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>260485.32644</v>
+        <v>264621.24556</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>256681.70224</v>
+        <v>271115.01645</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>399826.49771</v>
+        <v>391976.30702</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>294139.31121</v>
+        <v>290771.97463</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>551597.2706500001</v>
+        <v>584451.40643</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>374717.8070499999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>394738.9849</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>381339.364</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2940.68981</v>
+        <v>3949.40718</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1709.11908</v>
+        <v>2852.08599</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4352.6308</v>
+        <v>4736.40783</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2553.95294</v>
+        <v>2721.86196</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2938.31837</v>
+        <v>3248.77955</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3020.39662</v>
+        <v>4615.68184</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3744.98609</v>
+        <v>4231.8815</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3100.75736</v>
+        <v>5972.26992</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2845.81136</v>
+        <v>2750.40653</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2710.86314</v>
+        <v>2646.47104</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2720.15086</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1543.18867</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3487.438</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3181.73711</v>
+        <v>2781.70002</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>4956.250400000001</v>
+        <v>3808.00336</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4000.72195</v>
+        <v>4116.54789</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6231.197109999999</v>
+        <v>5639.92151</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4711.471219999999</v>
+        <v>5006.204519999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4340.93234</v>
+        <v>4727.270769999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4394.46539</v>
+        <v>4920.485489999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7627.6529</v>
+        <v>6928.30307</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>9351.412350000001</v>
+        <v>7402.643279999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12127.16225</v>
+        <v>13388.3728</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11677.91622</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14504.33744</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4998.612</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>84917.38381999999</v>
+        <v>83945.43856000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>97385.12706999999</v>
+        <v>101940.18063</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>303165.19163</v>
+        <v>308939.76788</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>140642.90302</v>
+        <v>144520.22989</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>164478.24123</v>
+        <v>158775.50388</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>253123.99748</v>
+        <v>255278.29295</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>248542.25076</v>
+        <v>261962.64946</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>389098.08745</v>
+        <v>379075.73403</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>281942.0875</v>
+        <v>280618.9248200001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>536759.24526</v>
+        <v>568416.56259</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>360319.7399700001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>378691.4587899999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>372853.314</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-22423.14628</v>
+        <v>-21269.16881</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>110555.40818</v>
+        <v>94701.21715000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-128605.12177</v>
+        <v>-135968.69163</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>71287.89051000001</v>
+        <v>53948.27717</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>154799.40701</v>
+        <v>143807.64907</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>113236.70686</v>
+        <v>128757.68445</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>202896.17577</v>
+        <v>330940.55614</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-75643.02917000001</v>
+        <v>-42307.12322</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>188687.57639</v>
+        <v>237190.90243</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>134264.45159</v>
+        <v>45454.88137</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>333652.48724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>295084.27396</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>798187.505</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>30223.37318</v>
+        <v>30837.86066</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>37562.27408</v>
+        <v>37813.2847</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>41863.59135</v>
+        <v>41184.20078</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>46196.17057</v>
+        <v>45936.75914</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>67384.2795</v>
+        <v>65032.96964</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>69654.52237999999</v>
+        <v>70480.9385</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>77335.69352</v>
+        <v>81565.13223</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>76614.65071</v>
+        <v>84172.80141</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>82551.92294</v>
+        <v>86132.23421000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>137933.18209</v>
+        <v>137528.41971</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>154169.15603</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>155651.81354</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>204686.343</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-52646.51946000001</v>
+        <v>-52107.02947000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>72993.1341</v>
+        <v>56887.93245</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-170468.71312</v>
+        <v>-177152.89241</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>25091.71994</v>
+        <v>8011.518030000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>87415.12751000001</v>
+        <v>78774.67943</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>43582.18448</v>
+        <v>58276.74595</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>125560.48225</v>
+        <v>249375.42391</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-152257.67988</v>
+        <v>-126479.92463</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>106135.65345</v>
+        <v>151058.66822</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3668.730500000004</v>
+        <v>-92073.53834</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>179483.33121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>139432.46042</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>593501.162</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>4030</v>
+        <v>3624</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4469</v>
+        <v>4007</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5094</v>
+        <v>4580</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5800</v>
+        <v>5167</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6501</v>
+        <v>5694</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7062</v>
+        <v>6185</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7536</v>
+        <v>6537</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7965</v>
+        <v>6625</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>8283</v>
+        <v>6875</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6167</v>
+        <v>5617</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5953</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>